--- a/data/trans_orig/P70B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F18E9C-57E5-4135-BB3E-13AD7B4634F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0613D0BB-9A92-4135-A1F6-E5185991D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A35A64A0-0E2F-43EF-85EC-28E77D17E174}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C62AB70-4A05-4187-B999-60F63E823F88}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1F234B-96FA-4F47-A685-E879990D83DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51077E63-F533-469A-B967-8812CD4F8575}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0613D0BB-9A92-4135-A1F6-E5185991D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{442F6ECA-5630-46B6-A454-CC5829CB9FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C62AB70-4A05-4187-B999-60F63E823F88}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{649E9084-777D-45C4-80F0-A6D8599B52AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>96,31%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>76,23%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>70,94%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>72,27%</t>
   </si>
   <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>80,63%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,25 +308,25 @@
     <t>95,9%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>94,0%</t>
+    <t>94,14%</t>
   </si>
   <si>
     <t>98,14%</t>
@@ -335,19 +335,19 @@
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>3,52%</t>
@@ -356,7 +356,7 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>6,0%</t>
+    <t>5,86%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>71,81%</t>
   </si>
   <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
   </si>
   <si>
     <t>74,89%</t>
   </si>
   <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,49 @@
     <t>85,41%</t>
   </si>
   <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>91,33%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>8,67%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,79 +473,79 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>90,73%</t>
   </si>
   <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>83,96%</t>
+    <t>83,86%</t>
   </si>
   <si>
     <t>86,64%</t>
@@ -560,19 +554,19 @@
     <t>14,5%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>14,69%</t>
@@ -581,7 +575,7 @@
     <t>13,36%</t>
   </si>
   <si>
-    <t>16,04%</t>
+    <t>16,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51077E63-F533-469A-B967-8812CD4F8575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F674BD-8660-4619-847D-F462C050A8D1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2068,10 +2062,10 @@
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>663</v>
@@ -2080,13 +2074,13 @@
         <v>576707</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2095,13 @@
         <v>49175</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>57</v>
@@ -2116,13 +2110,13 @@
         <v>37747</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -2131,13 +2125,13 @@
         <v>86922</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2199,13 @@
         <v>474192</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>330</v>
@@ -2220,13 +2214,13 @@
         <v>282608</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>689</v>
@@ -2235,13 +2229,13 @@
         <v>756800</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>31899</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -2271,13 +2265,13 @@
         <v>45450</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -2286,13 +2280,13 @@
         <v>77349</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2354,13 @@
         <v>1568732</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1755</v>
@@ -2375,13 +2369,13 @@
         <v>1278491</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3197</v>
@@ -2390,13 +2384,13 @@
         <v>2847224</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>266084</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>280</v>
@@ -2426,13 +2420,13 @@
         <v>224014</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>512</v>
@@ -2441,13 +2435,13 @@
         <v>490098</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442F6ECA-5630-46B6-A454-CC5829CB9FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67043CAE-F84B-4CAF-B90C-C8A2A455237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{649E9084-777D-45C4-80F0-A6D8599B52AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B77DF2ED-624B-4249-80FB-C646C3DA134C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>96,31%</t>
   </si>
   <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>76,23%</t>
   </si>
   <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>70,94%</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>72,27%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>80,63%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,25 +308,25 @@
     <t>95,9%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>94,14%</t>
+    <t>94,0%</t>
   </si>
   <si>
     <t>98,14%</t>
@@ -335,19 +335,19 @@
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>3,52%</t>
@@ -356,7 +356,7 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>5,86%</t>
+    <t>6,0%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>71,81%</t>
   </si>
   <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>74,89%</t>
   </si>
   <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,49 +422,55 @@
     <t>85,41%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>91,33%</t>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>8,67%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,79 +479,79 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>90,73%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>83,86%</t>
+    <t>83,96%</t>
   </si>
   <si>
     <t>86,64%</t>
@@ -554,19 +560,19 @@
     <t>14,5%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>14,69%</t>
@@ -575,7 +581,7 @@
     <t>13,36%</t>
   </si>
   <si>
-    <t>16,14%</t>
+    <t>16,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F674BD-8660-4619-847D-F462C050A8D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5A6939-F9D0-48C9-AF74-D44638F7B660}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2062,10 +2068,10 @@
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>663</v>
@@ -2074,13 +2080,13 @@
         <v>576707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2101,13 @@
         <v>49175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>57</v>
@@ -2110,13 +2116,13 @@
         <v>37747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -2125,13 +2131,13 @@
         <v>86922</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2205,13 @@
         <v>474192</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>330</v>
@@ -2214,13 +2220,13 @@
         <v>282608</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>689</v>
@@ -2229,13 +2235,13 @@
         <v>756800</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>31899</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -2265,13 +2271,13 @@
         <v>45450</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -2280,13 +2286,13 @@
         <v>77349</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>1568732</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1755</v>
@@ -2369,13 +2375,13 @@
         <v>1278491</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3197</v>
@@ -2384,13 +2390,13 @@
         <v>2847224</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>266084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>280</v>
@@ -2420,13 +2426,13 @@
         <v>224014</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>512</v>
@@ -2435,13 +2441,13 @@
         <v>490098</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67043CAE-F84B-4CAF-B90C-C8A2A455237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3005B06-EC52-496A-BA74-9BD61BF67926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B77DF2ED-624B-4249-80FB-C646C3DA134C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{45C14526-0F52-47A1-910B-C64E1B80472A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,454 +134,454 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>95,9%</t>
+    <t>95,89%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5A6939-F9D0-48C9-AF74-D44638F7B660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CB7824-C8B7-48F7-BA14-4632761AE561}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1117,7 @@
         <v>192</v>
       </c>
       <c r="D4" s="7">
-        <v>156938</v>
+        <v>186853</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1132,7 @@
         <v>246</v>
       </c>
       <c r="I4" s="7">
-        <v>128972</v>
+        <v>137910</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1147,7 @@
         <v>438</v>
       </c>
       <c r="N4" s="7">
-        <v>285910</v>
+        <v>324763</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>6021</v>
+        <v>7348</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>5918</v>
+        <v>6422</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>11939</v>
+        <v>13770</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1219,7 @@
         <v>202</v>
       </c>
       <c r="D6" s="7">
-        <v>162959</v>
+        <v>194201</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1234,7 @@
         <v>257</v>
       </c>
       <c r="I6" s="7">
-        <v>134890</v>
+        <v>144332</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1249,7 @@
         <v>459</v>
       </c>
       <c r="N6" s="7">
-        <v>297849</v>
+        <v>338533</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1272,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="7">
-        <v>183102</v>
+        <v>180575</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1287,7 @@
         <v>166</v>
       </c>
       <c r="I7" s="7">
-        <v>137016</v>
+        <v>127946</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1302,7 @@
         <v>301</v>
       </c>
       <c r="N7" s="7">
-        <v>320118</v>
+        <v>308521</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1323,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="7">
-        <v>57098</v>
+        <v>59035</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1338,7 @@
         <v>48</v>
       </c>
       <c r="I8" s="7">
-        <v>41842</v>
+        <v>39146</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1353,7 @@
         <v>82</v>
       </c>
       <c r="N8" s="7">
-        <v>98940</v>
+        <v>98181</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1374,7 @@
         <v>169</v>
       </c>
       <c r="D9" s="7">
-        <v>240200</v>
+        <v>239610</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1389,7 @@
         <v>214</v>
       </c>
       <c r="I9" s="7">
-        <v>178858</v>
+        <v>167092</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1404,7 @@
         <v>383</v>
       </c>
       <c r="N9" s="7">
-        <v>419058</v>
+        <v>406702</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1427,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="7">
-        <v>107236</v>
+        <v>105633</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1442,7 @@
         <v>126</v>
       </c>
       <c r="I10" s="7">
-        <v>94799</v>
+        <v>89282</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1457,7 @@
         <v>234</v>
       </c>
       <c r="N10" s="7">
-        <v>202035</v>
+        <v>194914</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1478,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>43927</v>
+        <v>43049</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1493,7 @@
         <v>43</v>
       </c>
       <c r="I11" s="7">
-        <v>33594</v>
+        <v>31580</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1508,7 @@
         <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>77521</v>
+        <v>74629</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1529,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="7">
-        <v>151163</v>
+        <v>148682</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1544,7 @@
         <v>169</v>
       </c>
       <c r="I12" s="7">
-        <v>128393</v>
+        <v>120862</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1559,7 @@
         <v>321</v>
       </c>
       <c r="N12" s="7">
-        <v>279556</v>
+        <v>269543</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1582,7 @@
         <v>105</v>
       </c>
       <c r="D13" s="7">
-        <v>140645</v>
+        <v>136696</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1597,7 +1597,7 @@
         <v>163</v>
       </c>
       <c r="I13" s="7">
-        <v>161803</v>
+        <v>227960</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1612,7 +1612,7 @@
         <v>268</v>
       </c>
       <c r="N13" s="7">
-        <v>302448</v>
+        <v>364655</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1633,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>33782</v>
+        <v>31801</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1648,7 +1648,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>32687</v>
+        <v>29814</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1663,7 +1663,7 @@
         <v>59</v>
       </c>
       <c r="N14" s="7">
-        <v>66469</v>
+        <v>61615</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1684,7 +1684,7 @@
         <v>126</v>
       </c>
       <c r="D15" s="7">
-        <v>174427</v>
+        <v>168497</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1699,7 @@
         <v>201</v>
       </c>
       <c r="I15" s="7">
-        <v>194490</v>
+        <v>257774</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1714,7 @@
         <v>327</v>
       </c>
       <c r="N15" s="7">
-        <v>368917</v>
+        <v>426270</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1737,7 @@
         <v>162</v>
       </c>
       <c r="D16" s="7">
-        <v>119179</v>
+        <v>108892</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1752,7 @@
         <v>233</v>
       </c>
       <c r="I16" s="7">
-        <v>114843</v>
+        <v>104072</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1767,7 +1767,7 @@
         <v>395</v>
       </c>
       <c r="N16" s="7">
-        <v>234022</v>
+        <v>212964</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1788,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>5092</v>
+        <v>4664</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1803,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>3438</v>
+        <v>3045</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1818,7 +1818,7 @@
         <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>8530</v>
+        <v>7709</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1839,7 +1839,7 @@
         <v>170</v>
       </c>
       <c r="D18" s="7">
-        <v>124271</v>
+        <v>113556</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1854,7 @@
         <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>118281</v>
+        <v>107117</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1869,7 @@
         <v>410</v>
       </c>
       <c r="N18" s="7">
-        <v>242552</v>
+        <v>220673</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1892,7 +1892,7 @@
         <v>110</v>
       </c>
       <c r="D19" s="7">
-        <v>99578</v>
+        <v>96924</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1907,7 +1907,7 @@
         <v>99</v>
       </c>
       <c r="I19" s="7">
-        <v>69608</v>
+        <v>64762</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1922,7 +1922,7 @@
         <v>209</v>
       </c>
       <c r="N19" s="7">
-        <v>169186</v>
+        <v>161686</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1943,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>39091</v>
+        <v>38137</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1958,7 +1958,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="7">
-        <v>23337</v>
+        <v>21640</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1973,7 +1973,7 @@
         <v>75</v>
       </c>
       <c r="N20" s="7">
-        <v>62428</v>
+        <v>59777</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1994,7 +1994,7 @@
         <v>155</v>
       </c>
       <c r="D21" s="7">
-        <v>138669</v>
+        <v>135061</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +2009,7 @@
         <v>129</v>
       </c>
       <c r="I21" s="7">
-        <v>92945</v>
+        <v>86402</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2024,7 @@
         <v>284</v>
       </c>
       <c r="N21" s="7">
-        <v>231614</v>
+        <v>221463</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2047,7 +2047,7 @@
         <v>271</v>
       </c>
       <c r="D22" s="7">
-        <v>287862</v>
+        <v>287187</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2062,7 +2062,7 @@
         <v>392</v>
       </c>
       <c r="I22" s="7">
-        <v>288844</v>
+        <v>270857</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2077,7 +2077,7 @@
         <v>663</v>
       </c>
       <c r="N22" s="7">
-        <v>576707</v>
+        <v>558044</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2098,7 +2098,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="7">
-        <v>49175</v>
+        <v>48299</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2113,7 +2113,7 @@
         <v>57</v>
       </c>
       <c r="I23" s="7">
-        <v>37747</v>
+        <v>35513</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2128,7 +2128,7 @@
         <v>101</v>
       </c>
       <c r="N23" s="7">
-        <v>86922</v>
+        <v>83811</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2149,7 +2149,7 @@
         <v>315</v>
       </c>
       <c r="D24" s="7">
-        <v>337037</v>
+        <v>335486</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2164,7 @@
         <v>449</v>
       </c>
       <c r="I24" s="7">
-        <v>326591</v>
+        <v>306370</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2179,7 @@
         <v>764</v>
       </c>
       <c r="N24" s="7">
-        <v>663629</v>
+        <v>641855</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2202,7 +2202,7 @@
         <v>359</v>
       </c>
       <c r="D25" s="7">
-        <v>474192</v>
+        <v>601526</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2217,7 +2217,7 @@
         <v>330</v>
       </c>
       <c r="I25" s="7">
-        <v>282608</v>
+        <v>234879</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -2232,7 +2232,7 @@
         <v>689</v>
       </c>
       <c r="N25" s="7">
-        <v>756800</v>
+        <v>836405</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -2253,7 +2253,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>31899</v>
+        <v>26799</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -2268,7 +2268,7 @@
         <v>46</v>
       </c>
       <c r="I26" s="7">
-        <v>45450</v>
+        <v>37132</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>158</v>
@@ -2283,7 +2283,7 @@
         <v>72</v>
       </c>
       <c r="N26" s="7">
-        <v>77349</v>
+        <v>63931</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -2304,7 +2304,7 @@
         <v>385</v>
       </c>
       <c r="D27" s="7">
-        <v>506091</v>
+        <v>628325</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2319,7 @@
         <v>376</v>
       </c>
       <c r="I27" s="7">
-        <v>328058</v>
+        <v>272011</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2334,7 @@
         <v>761</v>
       </c>
       <c r="N27" s="7">
-        <v>834149</v>
+        <v>900336</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,7 +2357,7 @@
         <v>1442</v>
       </c>
       <c r="D28" s="7">
-        <v>1568732</v>
+        <v>1704284</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -2372,7 +2372,7 @@
         <v>1755</v>
       </c>
       <c r="I28" s="7">
-        <v>1278491</v>
+        <v>1257670</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -2387,7 +2387,7 @@
         <v>3197</v>
       </c>
       <c r="N28" s="7">
-        <v>2847224</v>
+        <v>2961954</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>170</v>
@@ -2408,7 +2408,7 @@
         <v>232</v>
       </c>
       <c r="D29" s="7">
-        <v>266084</v>
+        <v>259132</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -2423,7 +2423,7 @@
         <v>280</v>
       </c>
       <c r="I29" s="7">
-        <v>224014</v>
+        <v>204291</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -2438,7 +2438,7 @@
         <v>512</v>
       </c>
       <c r="N29" s="7">
-        <v>490098</v>
+        <v>463423</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -2459,7 +2459,7 @@
         <v>1674</v>
       </c>
       <c r="D30" s="7">
-        <v>1834816</v>
+        <v>1963416</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2474,7 @@
         <v>2035</v>
       </c>
       <c r="I30" s="7">
-        <v>1502505</v>
+        <v>1461961</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2489,7 @@
         <v>3709</v>
       </c>
       <c r="N30" s="7">
-        <v>3337322</v>
+        <v>3425377</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
